--- a/Rice-FM.xlsx
+++ b/Rice-FM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vs786\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{041362FE-E630-4C06-BA27-DC8EE8FDD3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C0DDD5-7300-4D59-BD33-411765BCCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6939" yWindow="1390" windowWidth="12513" windowHeight="9211" xr2:uid="{998B3B93-73CC-46E7-BF92-D0EFB5D91863}"/>
+    <workbookView xWindow="11632" yWindow="3203" windowWidth="12513" windowHeight="9211" xr2:uid="{998B3B93-73CC-46E7-BF92-D0EFB5D91863}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs &amp; Income Statement" sheetId="1" r:id="rId1"/>
@@ -81,387 +81,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The selling price of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 kg o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">f rice is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30 Rs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and the buying price is</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 10 Rs.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> In the first year, the company sells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Additionally, there is a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Maintanace Charge(Storage &amp; Labour) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Delivery Charge(Transpotation &amp; Labour ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  of buying price that reduce from the total profit. If historical data shows that every year there is an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">11% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">increment in the buying price, so the company also increases the selling price accordingly. Apart from that, there is an increment of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.5%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the Maintanace charge and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.8%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the delivery charge each year. How much revenue can the company make if in the second year it sells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tons, in the third year it sells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tons, in the fourth year it sells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tons, and in the fifth year it sells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tons?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if each year tax is 4 %</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -504,6 +123,513 @@
       <t>The selling price per kg for each year based on the buying price and growth rate.
 The total selling price for each year by multiplying the selling price per kg by the quantity sold.
 The revenue for each year by subtracting the Maintanace charge and delivery charge from the total selling price.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The selling price of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 kg o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">f rice is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42-220 Rs(min-max set accordingly)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and the buying price is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18-26 Rs.(min-max set accordingly) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In the first year, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> company sells </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tonnes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Additionally, there is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Maintanace Charge(Storage &amp; Labour) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery Charge(Transpotation &amp; Labour ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  of buying price that reduce from the total profit. If historical data shows that every year there is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">11% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">increment in the buying price, so the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> company also increases the selling price accordingly. Apart from that, there is an increment of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the Maintanace charge and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the delivery charge each year. How much revenue can the company make if in the second year it sells </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tonnes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, in the third year it sells </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tonnes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, in the fourth year it sells </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tonnes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and in the fifth year it sells </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tonnes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if each year tax is 4 %</t>
     </r>
   </si>
 </sst>
@@ -863,22 +989,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.1</c:v>
+                  <c:v>19.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.321</c:v>
+                  <c:v>22.177800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.676309999999999</c:v>
+                  <c:v>24.617358000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.1807041</c:v>
+                  <c:v>27.325267380000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.850581551000001</c:v>
+                  <c:v>30.331046791800002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,22 +1090,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>55800000</c:v>
+                  <c:v>42840000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93565200</c:v>
+                  <c:v>72513360</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86465451.599999994</c:v>
+                  <c:v>66926612.880000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119385687.68280001</c:v>
+                  <c:v>92792142.149039984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76576267.527692407</c:v>
+                  <c:v>59140511.495446309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128175771.74750911</c:v>
+                  <c:v>99686267.004940331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,10 +2461,10 @@
   <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
@@ -2409,27 +2535,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10">
         <f>C5+C5*0.11</f>
-        <v>11.1</v>
+        <v>19.98</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:H5" si="0">D5+D5*0.11</f>
-        <v>12.321</v>
+        <v>22.177800000000001</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>13.676309999999999</v>
+        <v>24.617358000000003</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>15.1807041</v>
+        <v>27.325267380000003</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="0"/>
-        <v>16.850581551000001</v>
+        <v>30.331046791800002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2437,27 +2563,27 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="10">
         <f>C6+C6*0.11</f>
-        <v>44.4</v>
+        <v>46.62</v>
       </c>
       <c r="E6" s="10">
         <f>D6+D6*0.11</f>
-        <v>49.283999999999999</v>
+        <v>51.748199999999997</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" ref="F6:H6" si="1">E6+E6*0.11</f>
-        <v>54.705239999999996</v>
+        <v>57.440501999999995</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="1"/>
-        <v>60.722816399999999</v>
+        <v>63.758957219999992</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="1"/>
-        <v>67.402326204000005</v>
+        <v>70.772442514199994</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2466,27 +2592,27 @@
       </c>
       <c r="C7" s="10">
         <f>C4*1000*C5</f>
-        <v>20000000</v>
+        <v>36000000</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" ref="D7:H7" si="2">D4*1000*D5</f>
-        <v>33300000</v>
+        <v>59940000</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="2"/>
-        <v>30802500</v>
+        <v>55444500</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="2"/>
-        <v>42396561</v>
+        <v>76313809.800000012</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>27325267.379999999</v>
+        <v>49185481.284000009</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>45496570.187700003</v>
+        <v>81893826.337860003</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2495,27 +2621,27 @@
       </c>
       <c r="C8" s="10">
         <f t="shared" ref="C8:H8" si="3">C4*1000*C6</f>
-        <v>80000000</v>
+        <v>84000000</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="3"/>
-        <v>133200000</v>
+        <v>139860000</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="3"/>
-        <v>123210000</v>
+        <v>129370500</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="3"/>
-        <v>169586244</v>
+        <v>178065556.19999999</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="3"/>
-        <v>109301069.52</v>
+        <v>114766122.99599999</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="3"/>
-        <v>181986280.75080001</v>
+        <v>191085594.78833997</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2524,27 +2650,27 @@
       </c>
       <c r="C9" s="11">
         <f>C7*0.02</f>
-        <v>400000</v>
+        <v>720000</v>
       </c>
       <c r="D9" s="11">
         <f>C9+C9*0.005</f>
-        <v>402000</v>
+        <v>723600</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" ref="E9:H9" si="4">D9+D9*0.005</f>
-        <v>404010</v>
+        <v>727218</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="4"/>
-        <v>406030.05</v>
+        <v>730854.09</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="4"/>
-        <v>408060.20024999999</v>
+        <v>734508.36044999992</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="4"/>
-        <v>410100.50125124998</v>
+        <v>738180.90225224989</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2553,27 +2679,27 @@
       </c>
       <c r="C10" s="11">
         <f>C7*0.03</f>
-        <v>600000</v>
+        <v>1080000</v>
       </c>
       <c r="D10" s="11">
         <f>C10+C10*0.008</f>
-        <v>604800</v>
+        <v>1088640</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" ref="E10:H10" si="5">D10+D10*0.008</f>
-        <v>609638.40000000002</v>
+        <v>1097349.1200000001</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="5"/>
-        <v>614515.50719999999</v>
+        <v>1106127.9129600001</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="5"/>
-        <v>619431.63125760003</v>
+        <v>1114976.93626368</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="5"/>
-        <v>624387.08430766081</v>
+        <v>1123896.7517537894</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2605,27 +2731,27 @@
       </c>
       <c r="C12" s="10">
         <f>(C6-C5)*(C4*1000)</f>
-        <v>60000000</v>
+        <v>48000000</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" ref="D12:H12" si="6">(D6-D5)*(D4*1000)</f>
-        <v>99899999.999999985</v>
+        <v>79919999.999999985</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="6"/>
-        <v>92407500</v>
+        <v>73925999.999999985</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="6"/>
-        <v>127189682.99999999</v>
+        <v>101751746.39999998</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="6"/>
-        <v>81975802.140000001</v>
+        <v>65580641.711999975</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="6"/>
-        <v>136489710.56310001</v>
+        <v>109191768.45047997</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2643,32 +2769,32 @@
       </c>
       <c r="C14" s="14">
         <f>C8-(C8*0.04)-C7-C9-C10</f>
-        <v>55800000</v>
+        <v>42840000</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" ref="D14:H14" si="7">D8-(D8*0.04)-D7-D9-D10</f>
-        <v>93565200</v>
+        <v>72513360</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="7"/>
-        <v>86465451.599999994</v>
+        <v>66926612.880000003</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="7"/>
-        <v>119385687.68280001</v>
+        <v>92792142.149039984</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="7"/>
-        <v>76576267.527692407</v>
+        <v>59140511.495446309</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="7"/>
-        <v>128175771.74750911</v>
+        <v>99686267.004940331</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -2779,7 +2905,7 @@
     <row r="30" spans="2:8" ht="14.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:8" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>

--- a/Rice-FM.xlsx
+++ b/Rice-FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vs786\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C0DDD5-7300-4D59-BD33-411765BCCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C62D5F0-91E8-4346-98C6-B1C01A8DAF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11632" yWindow="3203" windowWidth="12513" windowHeight="9211" xr2:uid="{998B3B93-73CC-46E7-BF92-D0EFB5D91863}"/>
   </bookViews>
@@ -54,12 +54,6 @@
     <t>Buying Price per kg (Rs)</t>
   </si>
   <si>
-    <t>2024A</t>
-  </si>
-  <si>
-    <t>2025F</t>
-  </si>
-  <si>
     <t>Maintanace Charge (Rs)</t>
   </si>
   <si>
@@ -631,6 +625,12 @@
       </rPr>
       <t xml:space="preserve"> if each year tax is 4 %</t>
     </r>
+  </si>
+  <si>
+    <t>2019A</t>
+  </si>
+  <si>
+    <t>2020F</t>
   </si>
 </sst>
 </file>
@@ -962,22 +962,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2024A</c:v>
+                  <c:v>2019A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2025F</c:v>
+                  <c:v>2020F</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2026F</c:v>
+                  <c:v>2021F</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2027F</c:v>
+                  <c:v>2022F</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2028F</c:v>
+                  <c:v>2023F</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2029F</c:v>
+                  <c:v>2024F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1063,22 +1063,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2024A</c:v>
+                  <c:v>2019A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2025F</c:v>
+                  <c:v>2020F</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2026F</c:v>
+                  <c:v>2021F</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2027F</c:v>
+                  <c:v>2022F</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2028F</c:v>
+                  <c:v>2023F</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2029F</c:v>
+                  <c:v>2024F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2461,10 +2461,10 @@
   <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18:H28"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
@@ -2489,27 +2489,27 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="F2" s="6">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="G2" s="6">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="H2" s="6">
-        <v>2029</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>2000</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
         <f>C4*1000*C5</f>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="11">
         <f>C7*0.02</f>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="12">
         <v>0.04</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10">
         <f>(C6-C5)*(C4*1000)</f>
@@ -2765,18 +2765,18 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="14">
         <f>C8-(C8*0.04)-C7-C9-C10</f>
         <v>42840000</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" ref="D14:H14" si="7">D8-(D8*0.04)-D7-D9-D10</f>
+        <f>D8-(D8*0.04)-D7-D9-D10</f>
         <v>72513360</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D14:H14" si="7">E8-(E8*0.04)-E7-E9-E10</f>
         <v>66926612.880000003</v>
       </c>
       <c r="F14" s="14">
@@ -2794,7 +2794,7 @@
     </row>
     <row r="18" spans="2:8" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -2905,7 +2905,7 @@
     <row r="30" spans="2:8" ht="14.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:8" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
